--- a/5.Clustering/Clustering_step_by_step.xlsx
+++ b/5.Clustering/Clustering_step_by_step.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DSB2/5.Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6171EC13-3337-C44A-A6B7-1B9701214837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD2E6A-17B1-C442-9A3D-31D3A920CFC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="12000" activeTab="2" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
   </bookViews>
   <sheets>
     <sheet name="Kmeans" sheetId="2" r:id="rId1"/>
-    <sheet name="Hierrarchial" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hierrarchial" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Age</t>
   </si>
@@ -87,9 +88,6 @@
   </si>
   <si>
     <t>C[2,2]</t>
-  </si>
-  <si>
-    <t>C[1,3]</t>
   </si>
   <si>
     <t>Step1: Create Lower Triangular Distance Matrix</t>
@@ -114,9 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -228,12 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -562,37 +558,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A12DDFF-F985-654E-8A57-3295AB8E6FF1}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>15000</v>
       </c>
       <c r="E2" t="s">
@@ -604,18 +602,15 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>23</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>14500</v>
       </c>
       <c r="E3">
@@ -630,14 +625,14 @@
         <v>1500.0119999520005</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>17000</v>
       </c>
       <c r="E4">
@@ -652,14 +647,14 @@
         <v>2000.0159999360005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>16500</v>
       </c>
       <c r="E5">
@@ -674,14 +669,14 @@
         <v>500.00899991900144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>26</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>14800</v>
       </c>
       <c r="E6">
@@ -696,14 +691,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>17500</v>
       </c>
       <c r="E7">
@@ -718,14 +713,14 @@
         <v>1700.0073529252747</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>39</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>21000</v>
       </c>
       <c r="E8">
@@ -740,7 +735,7 @@
         <v>1000.001999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>6</v>
       </c>
@@ -753,7 +748,7 @@
         <v>4500.0071111054922</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -767,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -781,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>2</v>
       </c>
@@ -795,60 +790,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <f>AVERAGE(B2,B3,B6)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2,C3,C6)</f>
+        <v>14766.666666666666</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <f>(($B$13- $B2)^2 + ($C$13 - $C2)^2)^0.5</f>
+        <v>233.33357142845057</v>
+      </c>
+      <c r="G13" s="3">
+        <f>(($B$14 - $B2)^2 + ($C$14 - $C2)^2)^0.5</f>
+        <v>3000.0100103999653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14">
+        <f>AVERAGE(B4,B5,B7,B8)</f>
+        <v>32.75</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C4,C5,C7,C8)</f>
+        <v>18000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F19" si="2">(($B$13- $B3)^2 + ($C$13 - $C3)^2)^0.5</f>
+        <v>266.67187494913776</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:G19" si="3">(($B$14 - $B3)^2 + ($C$14 - $C3)^2)^0.5</f>
+        <v>3500.0135803307962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>2233.3358208941377</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>1000.0112811863675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>1733.3449038075364</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>1500.0010208329859</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>33.35998934185875</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>3200.0071191327061</v>
+      </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>2733.3460365558471</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>500.00006249999609</v>
+      </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>6233.349812812442</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>3000.0065104096025</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,10 +915,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA297FB-B234-9943-B5AC-49CE4E1C0CC0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB0082-CD6D-1B4E-AE2F-DD80DBDEAAE9}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -880,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -893,10 +966,10 @@
       <c r="C2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="L2" t="s">
         <v>14</v>
       </c>
@@ -915,14 +988,14 @@
       <c r="C3">
         <v>14500</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f>((B3-$B$2)^2+(C3-$C$2)^2)^0.5</f>
         <v>500.00399998400013</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -940,10 +1013,10 @@
       <c r="C4">
         <v>17000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F8" si="0">((B4-$B$2)^2+(C4-$C$2)^2)^0.5</f>
         <v>2000.0022499987344</v>
       </c>
@@ -951,7 +1024,7 @@
         <f>((B4-$B$3)^2 +(C4-$C$3)^2)^0.5</f>
         <v>2500.0049999950002</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -963,7 +1036,7 @@
       <c r="C5" s="2">
         <v>16500</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
       <c r="F5">
@@ -978,7 +1051,7 @@
         <f t="shared" ref="H5:H8" si="2">((B5-$B$4)^2 + (C5-$C$4)^2)^0.5</f>
         <v>500.00899991900144</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -990,7 +1063,7 @@
       <c r="C6">
         <v>14800</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
       <c r="F6">
@@ -1001,7 +1074,7 @@
         <f t="shared" si="1"/>
         <v>300.01499962501873</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>2200.0009090907211</v>
       </c>
@@ -1009,7 +1082,7 @@
         <f t="shared" ref="I6:I8" si="3">((B6-$B$5)^2+(C6-$C$5)^2)^0.5</f>
         <v>1700.0073529252747</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1021,7 +1094,7 @@
       <c r="C7">
         <v>17500</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
       <c r="F7">
@@ -1044,7 +1117,7 @@
         <f t="shared" ref="J7:J8" si="4">((B7-$B$6)^2 + (C7 - $C$6)^2)^0.5</f>
         <v>2700.0090740588262</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1056,7 +1129,7 @@
       <c r="C8">
         <v>21000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
       <c r="F8">
@@ -1083,28 +1156,28 @@
         <f>((B8-$B$7)^2 + (C8 - $C$7)^2)^0.5</f>
         <v>3500.0051428533643</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>3</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>4</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>5</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1114,138 +1187,138 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>300.01499962501873</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>2000.0022499987344</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>2500.0049999950002</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f>MIN(F14:K18)</f>
         <v>300.01499962501873</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>1500</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>2000</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>500.01</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>2500.0128</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>3000</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>500.02</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>1000</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E18" s="9">
-        <v>6</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="8">
+        <v>6</v>
+      </c>
+      <c r="F18" s="13">
         <v>6000.0163000000002</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>6500</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>4000</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>4500</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>3500</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="11"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>5</v>
       </c>
       <c r="K19">
         <v>6</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
@@ -1253,92 +1326,112 @@
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11"/>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11" t="s">
+      <c r="F24" s="11">
+        <v>2000.0022499987344</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M24">
-        <f>MIN(F23:I26)</f>
-        <v>0</v>
+        <f>MIN(F23:I27)</f>
+        <v>500.01</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>3</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="11" t="s">
+      <c r="F25" s="11">
+        <v>1500.0119999520005</v>
+      </c>
+      <c r="G25" s="13">
+        <v>500.01</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>5</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="11"/>
+      <c r="F26" s="11">
+        <v>2500.0127999672322</v>
+      </c>
+      <c r="G26" s="10">
+        <v>500.02</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E27" s="9">
-        <v>6</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="6"/>
-      <c r="L27" s="11"/>
+      <c r="E27" s="8">
+        <v>6</v>
+      </c>
+      <c r="F27" s="13">
+        <v>6000.0163000000002</v>
+      </c>
+      <c r="G27" s="10">
+        <v>4000</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4500</v>
+      </c>
+      <c r="I27" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="9">
         <v>2</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>5</v>
       </c>
       <c r="J28">
@@ -1351,105 +1444,119 @@
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="11"/>
+      <c r="E31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
-        <v>22</v>
+      <c r="F32" s="11">
+        <v>1500.0119999520005</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="M32">
         <f>MIN(F31:I34)</f>
-        <v>0</v>
+        <v>500.02</v>
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="11" t="s">
+      <c r="F33" s="11">
+        <v>2500.0127999672322</v>
+      </c>
+      <c r="G33" s="10">
+        <v>500.02</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E34" s="9">
-        <v>6</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
+      <c r="E34" s="8">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
+        <v>6000.0163000000002</v>
+      </c>
+      <c r="G34" s="10">
+        <v>4000</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3500</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>5</v>
       </c>
-      <c r="I35" s="9">
-        <v>6</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="L35" s="11"/>
+      <c r="I35" s="8">
+        <v>6</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11" t="s">
-        <v>22</v>
+      <c r="E39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="M39">
         <f>MIN(F38:I41)</f>
@@ -1457,53 +1564,53 @@
       </c>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="11" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E41" s="9">
-        <v>6</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="11"/>
+      <c r="E41" s="8">
+        <v>6</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="9">
-        <v>6</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="L42" s="11"/>
+      <c r="H42" s="8">
+        <v>6</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="11"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E45" s="10"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="11" t="s">
-        <v>22</v>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="M45">
         <f>MIN(F44:I47)</f>
@@ -1511,42 +1618,42 @@
       </c>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="11" t="s">
+      <c r="E46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E47" s="9">
-        <v>6</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="11"/>
+      <c r="E47" s="8">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="10">
-        <v>6</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="L48" s="11" t="s">
+      <c r="F48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="9">
+        <v>6</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="L48" s="10" t="s">
         <v>9</v>
       </c>
     </row>
